--- a/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2021.xlsx
+++ b/data/BppTrend/Valid_Import_Files/CAA Valuation Factors 2021.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deedeepi1\Documents\Sikander's BPP Files\BppTrend\BppTrend\Valid_Import_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deedeepi1\Automation\apasnew\qa_automation\data\BppTrend\Valid_Import_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6765" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Document Details" sheetId="16" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Tab</t>
   </si>
@@ -78,12 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mechanical Slot Machines &amp; Other Gaming Equipment </t>
-  </si>
-  <si>
-    <t>Junk_A</t>
-  </si>
-  <si>
-    <t>Junk_B</t>
   </si>
 </sst>
 </file>
@@ -593,16 +587,16 @@
       <c r="A2" s="5">
         <v>2020</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="5">
         <v>2019</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -670,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -690,18 +684,18 @@
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>2020</v>
+      </c>
+      <c r="B2" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="5">
         <v>2019</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -769,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -792,16 +786,16 @@
       <c r="A2" s="6">
         <v>2020</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="B2" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="6">
         <v>2019</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
+      <c r="B3" s="3">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15">
